--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.320198333333333</v>
+        <v>7.861494</v>
       </c>
       <c r="H2">
-        <v>18.960595</v>
+        <v>23.584482</v>
       </c>
       <c r="I2">
-        <v>0.01706930024836835</v>
+        <v>0.02087137335661869</v>
       </c>
       <c r="J2">
-        <v>0.01706930024836834</v>
+        <v>0.02087137335661869</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.613593333333333</v>
+        <v>8.495336333333334</v>
       </c>
       <c r="N2">
-        <v>22.84078</v>
+        <v>25.486009</v>
       </c>
       <c r="O2">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="P2">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="Q2">
-        <v>48.11941989601111</v>
+        <v>66.78603561248201</v>
       </c>
       <c r="R2">
-        <v>433.0747790640999</v>
+        <v>601.074320512338</v>
       </c>
       <c r="S2">
-        <v>0.01562102177861316</v>
+        <v>0.01929914553837678</v>
       </c>
       <c r="T2">
-        <v>0.01562102177861316</v>
+        <v>0.01929914553837678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.320198333333333</v>
+        <v>7.861494</v>
       </c>
       <c r="H3">
-        <v>18.960595</v>
+        <v>23.584482</v>
       </c>
       <c r="I3">
-        <v>0.01706930024836835</v>
+        <v>0.02087137335661869</v>
       </c>
       <c r="J3">
-        <v>0.01706930024836834</v>
+        <v>0.02087137335661869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.667476</v>
       </c>
       <c r="O3">
-        <v>0.06681013991787221</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="P3">
-        <v>0.06681013991787223</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="Q3">
-        <v>3.512926345357777</v>
+        <v>4.369617523047999</v>
       </c>
       <c r="R3">
-        <v>31.61633710821999</v>
+        <v>39.32655770743199</v>
       </c>
       <c r="S3">
-        <v>0.00114040233789366</v>
+        <v>0.001262687382938237</v>
       </c>
       <c r="T3">
-        <v>0.00114040233789366</v>
+        <v>0.001262687382938237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.320198333333333</v>
+        <v>7.861494</v>
       </c>
       <c r="H4">
-        <v>18.960595</v>
+        <v>23.584482</v>
       </c>
       <c r="I4">
-        <v>0.01706930024836835</v>
+        <v>0.02087137335661869</v>
       </c>
       <c r="J4">
-        <v>0.01706930024836834</v>
+        <v>0.02087137335661869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.150057</v>
+        <v>0.1362573333333333</v>
       </c>
       <c r="N4">
-        <v>0.450171</v>
+        <v>0.408772</v>
       </c>
       <c r="O4">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="P4">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="Q4">
-        <v>0.948390001305</v>
+        <v>1.071186208456</v>
       </c>
       <c r="R4">
-        <v>8.535510011744998</v>
+        <v>9.640675876103998</v>
       </c>
       <c r="S4">
-        <v>0.0003078761318615242</v>
+        <v>0.0003095404353036739</v>
       </c>
       <c r="T4">
-        <v>0.0003078761318615242</v>
+        <v>0.0003095404353036739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>1073.137635</v>
       </c>
       <c r="I5">
-        <v>0.966093548205577</v>
+        <v>0.9496861641109521</v>
       </c>
       <c r="J5">
-        <v>0.9660935482055769</v>
+        <v>0.9496861641109521</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.613593333333333</v>
+        <v>8.495336333333334</v>
       </c>
       <c r="N5">
-        <v>22.84078</v>
+        <v>25.486009</v>
       </c>
       <c r="O5">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="P5">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="Q5">
-        <v>2723.4778478617</v>
+        <v>3038.888380427636</v>
       </c>
       <c r="R5">
-        <v>24511.3006307553</v>
+        <v>27349.99542384872</v>
       </c>
       <c r="S5">
-        <v>0.8841234343006864</v>
+        <v>0.8781468849124803</v>
       </c>
       <c r="T5">
-        <v>0.8841234343006863</v>
+        <v>0.8781468849124803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>1073.137635</v>
       </c>
       <c r="I6">
-        <v>0.966093548205577</v>
+        <v>0.9496861641109521</v>
       </c>
       <c r="J6">
-        <v>0.9660935482055769</v>
+        <v>0.9496861641109521</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>1.667476</v>
       </c>
       <c r="O6">
-        <v>0.06681013991787221</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="P6">
-        <v>0.06681013991787223</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="Q6">
         <v>198.82569456214</v>
@@ -824,10 +824,10 @@
         <v>1789.43125105926</v>
       </c>
       <c r="S6">
-        <v>0.06454484512936823</v>
+        <v>0.05745461578807112</v>
       </c>
       <c r="T6">
-        <v>0.06454484512936823</v>
+        <v>0.05745461578807112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1073.137635</v>
       </c>
       <c r="I7">
-        <v>0.966093548205577</v>
+        <v>0.9496861641109521</v>
       </c>
       <c r="J7">
-        <v>0.9660935482055769</v>
+        <v>0.9496861641109521</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.150057</v>
+        <v>0.1362573333333333</v>
       </c>
       <c r="N7">
-        <v>0.450171</v>
+        <v>0.408772</v>
       </c>
       <c r="O7">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="P7">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="Q7">
-        <v>53.677271365065</v>
+        <v>48.74095748158</v>
       </c>
       <c r="R7">
-        <v>483.095442285585</v>
+        <v>438.66861733422</v>
       </c>
       <c r="S7">
-        <v>0.0174252687755223</v>
+        <v>0.01408466341040075</v>
       </c>
       <c r="T7">
-        <v>0.0174252687755223</v>
+        <v>0.01408466341040075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2484933333333333</v>
+        <v>7.100387666666667</v>
       </c>
       <c r="H8">
-        <v>0.74548</v>
+        <v>21.301163</v>
       </c>
       <c r="I8">
-        <v>0.0006711193371913507</v>
+        <v>0.01885072251759407</v>
       </c>
       <c r="J8">
-        <v>0.0006711193371913505</v>
+        <v>0.01885072251759407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.613593333333333</v>
+        <v>8.495336333333334</v>
       </c>
       <c r="N8">
-        <v>22.84078</v>
+        <v>25.486009</v>
       </c>
       <c r="O8">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="P8">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="Q8">
-        <v>1.891927186044444</v>
+        <v>60.32018132538524</v>
       </c>
       <c r="R8">
-        <v>17.0273446744</v>
+        <v>542.8816319284671</v>
       </c>
       <c r="S8">
-        <v>0.0006141768924192802</v>
+        <v>0.01743070909395791</v>
       </c>
       <c r="T8">
-        <v>0.0006141768924192801</v>
+        <v>0.01743070909395791</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2484933333333333</v>
+        <v>7.100387666666667</v>
       </c>
       <c r="H9">
-        <v>0.74548</v>
+        <v>21.301163</v>
       </c>
       <c r="I9">
-        <v>0.0006711193371913507</v>
+        <v>0.01885072251759407</v>
       </c>
       <c r="J9">
-        <v>0.0006711193371913505</v>
+        <v>0.01885072251759407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>1.667476</v>
       </c>
       <c r="O9">
-        <v>0.06681013991787221</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="P9">
-        <v>0.06681013991787223</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="Q9">
-        <v>0.1381188898311111</v>
+        <v>3.946575341620889</v>
       </c>
       <c r="R9">
-        <v>1.24307000848</v>
+        <v>35.51917807458801</v>
       </c>
       <c r="S9">
-        <v>4.48375768193438E-05</v>
+        <v>0.001140440979878668</v>
       </c>
       <c r="T9">
-        <v>4.48375768193438E-05</v>
+        <v>0.001140440979878668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2484933333333333</v>
+        <v>7.100387666666667</v>
       </c>
       <c r="H10">
-        <v>0.74548</v>
+        <v>21.301163</v>
       </c>
       <c r="I10">
-        <v>0.0006711193371913507</v>
+        <v>0.01885072251759407</v>
       </c>
       <c r="J10">
-        <v>0.0006711193371913505</v>
+        <v>0.01885072251759407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150057</v>
+        <v>0.1362573333333333</v>
       </c>
       <c r="N10">
-        <v>0.450171</v>
+        <v>0.408772</v>
       </c>
       <c r="O10">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="P10">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="Q10">
-        <v>0.03728816412</v>
+        <v>0.9674798890928888</v>
       </c>
       <c r="R10">
-        <v>0.33559347708</v>
+        <v>8.707319001836</v>
       </c>
       <c r="S10">
-        <v>1.210486795272665E-05</v>
+        <v>0.0002795724437574891</v>
       </c>
       <c r="T10">
-        <v>1.210486795272665E-05</v>
+        <v>0.0002795724437574891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.749211333333332</v>
+        <v>2.906965</v>
       </c>
       <c r="H11">
-        <v>17.247634</v>
+        <v>8.720895000000001</v>
       </c>
       <c r="I11">
-        <v>0.01552720488570988</v>
+        <v>0.007717661789174303</v>
       </c>
       <c r="J11">
-        <v>0.01552720488570988</v>
+        <v>0.007717661789174304</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.613593333333333</v>
+        <v>8.495336333333334</v>
       </c>
       <c r="N11">
-        <v>22.84078</v>
+        <v>25.486009</v>
       </c>
       <c r="O11">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="P11">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="Q11">
-        <v>43.7721570793911</v>
+        <v>24.69564538422834</v>
       </c>
       <c r="R11">
-        <v>393.9494137145199</v>
+        <v>222.260808458055</v>
       </c>
       <c r="S11">
-        <v>0.01420976854067865</v>
+        <v>0.007136295036282856</v>
       </c>
       <c r="T11">
-        <v>0.01420976854067864</v>
+        <v>0.007136295036282857</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.749211333333332</v>
+        <v>2.906965</v>
       </c>
       <c r="H12">
-        <v>17.247634</v>
+        <v>8.720895000000001</v>
       </c>
       <c r="I12">
-        <v>0.01552720488570988</v>
+        <v>0.007717661789174303</v>
       </c>
       <c r="J12">
-        <v>0.01552720488570988</v>
+        <v>0.007717661789174304</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>1.667476</v>
       </c>
       <c r="O12">
-        <v>0.06681013991787221</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="P12">
-        <v>0.06681013991787223</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="Q12">
-        <v>3.195557305753777</v>
+        <v>1.615764790113333</v>
       </c>
       <c r="R12">
-        <v>28.760015751784</v>
+        <v>14.54188311102</v>
       </c>
       <c r="S12">
-        <v>0.001037374730947746</v>
+        <v>0.0004669071843269297</v>
       </c>
       <c r="T12">
-        <v>0.001037374730947746</v>
+        <v>0.0004669071843269298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.749211333333332</v>
+        <v>2.906965</v>
       </c>
       <c r="H13">
-        <v>17.247634</v>
+        <v>8.720895000000001</v>
       </c>
       <c r="I13">
-        <v>0.01552720488570988</v>
+        <v>0.007717661789174303</v>
       </c>
       <c r="J13">
-        <v>0.01552720488570988</v>
+        <v>0.007717661789174304</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.150057</v>
+        <v>0.1362573333333333</v>
       </c>
       <c r="N13">
-        <v>0.450171</v>
+        <v>0.408772</v>
       </c>
       <c r="O13">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="P13">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="Q13">
-        <v>0.8627094050459998</v>
+        <v>0.3960952989933333</v>
       </c>
       <c r="R13">
-        <v>7.764384645413998</v>
+        <v>3.56485769094</v>
       </c>
       <c r="S13">
-        <v>0.0002800616140834877</v>
+        <v>0.0001144595685645177</v>
       </c>
       <c r="T13">
-        <v>0.0002800616140834878</v>
+        <v>0.0001144595685645177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2365366666666667</v>
+        <v>1.082561666666667</v>
       </c>
       <c r="H14">
-        <v>0.7096100000000001</v>
+        <v>3.247685</v>
       </c>
       <c r="I14">
-        <v>0.0006388273231533433</v>
+        <v>0.002874078225660846</v>
       </c>
       <c r="J14">
-        <v>0.0006388273231533432</v>
+        <v>0.002874078225660847</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.613593333333333</v>
+        <v>8.495336333333334</v>
       </c>
       <c r="N14">
-        <v>22.84078</v>
+        <v>25.486009</v>
       </c>
       <c r="O14">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="P14">
-        <v>0.9151530262704456</v>
+        <v>0.9246706102479199</v>
       </c>
       <c r="Q14">
-        <v>1.800893988422222</v>
+        <v>9.196725459907222</v>
       </c>
       <c r="R14">
-        <v>16.2080458958</v>
+        <v>82.77052913916501</v>
       </c>
       <c r="S14">
-        <v>0.00058462475804803</v>
+        <v>0.002657575666822073</v>
       </c>
       <c r="T14">
-        <v>0.0005846247580480299</v>
+        <v>0.002657575666822074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2365366666666667</v>
+        <v>1.082561666666667</v>
       </c>
       <c r="H15">
-        <v>0.7096100000000001</v>
+        <v>3.247685</v>
       </c>
       <c r="I15">
-        <v>0.0006388273231533433</v>
+        <v>0.002874078225660846</v>
       </c>
       <c r="J15">
-        <v>0.0006388273231533432</v>
+        <v>0.002874078225660847</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>1.667476</v>
       </c>
       <c r="O15">
-        <v>0.06681013991787221</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="P15">
-        <v>0.06681013991787223</v>
+        <v>0.06049852883963747</v>
       </c>
       <c r="Q15">
-        <v>0.1314730715955556</v>
+        <v>0.6017151992288888</v>
       </c>
       <c r="R15">
-        <v>1.18325764436</v>
+        <v>5.41543679306</v>
       </c>
       <c r="S15">
-        <v>4.268014284323463E-05</v>
+        <v>0.0001738775044225168</v>
       </c>
       <c r="T15">
-        <v>4.268014284323463E-05</v>
+        <v>0.0001738775044225168</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2365366666666667</v>
+        <v>1.082561666666667</v>
       </c>
       <c r="H16">
-        <v>0.7096100000000001</v>
+        <v>3.247685</v>
       </c>
       <c r="I16">
-        <v>0.0006388273231533433</v>
+        <v>0.002874078225660846</v>
       </c>
       <c r="J16">
-        <v>0.0006388273231533432</v>
+        <v>0.002874078225660847</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.150057</v>
+        <v>0.1362573333333333</v>
       </c>
       <c r="N16">
-        <v>0.450171</v>
+        <v>0.408772</v>
       </c>
       <c r="O16">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="P16">
-        <v>0.01803683381168212</v>
+        <v>0.01483086091244269</v>
       </c>
       <c r="Q16">
-        <v>0.03549398259000001</v>
+        <v>0.1475069658688889</v>
       </c>
       <c r="R16">
-        <v>0.31944584331</v>
+        <v>1.32756269282</v>
       </c>
       <c r="S16">
-        <v>1.15224222620786E-05</v>
+        <v>4.262505441625609E-05</v>
       </c>
       <c r="T16">
-        <v>1.15224222620786E-05</v>
+        <v>4.262505441625609E-05</v>
       </c>
     </row>
   </sheetData>
